--- a/일일보고서/(3.27)_3조_일일보고서.xlsx
+++ b/일일보고서/(3.27)_3조_일일보고서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t xml:space="preserve">교시 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>날씨 데이터 확인 및 가공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 확인 및 가공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,12 +269,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="hair">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -284,7 +288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,9 +298,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,9 +336,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -626,7 +624,7 @@
   <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -638,30 +636,30 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -672,16 +670,16 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -689,16 +687,16 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -706,89 +704,121 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="13">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="14">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>6</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="17"/>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>7</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="18"/>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>8</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
